--- a/AAII_Financials/Quarterly/BRTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRTX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>BRTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,96 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +797,26 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -813,14 +853,32 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,14 +915,32 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,25 +957,31 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G12" s="3">
         <v>400</v>
       </c>
       <c r="H12" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>400</v>
@@ -908,25 +990,43 @@
         <v>400</v>
       </c>
       <c r="K12" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L12" s="3">
         <v>500</v>
       </c>
       <c r="M12" s="3">
+        <v>400</v>
+      </c>
+      <c r="N12" s="3">
+        <v>400</v>
+      </c>
+      <c r="O12" s="3">
+        <v>400</v>
+      </c>
+      <c r="P12" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+      <c r="R12" s="3">
+        <v>500</v>
+      </c>
+      <c r="S12" s="3">
         <v>600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="T12" s="3">
         <v>800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="U12" s="3">
         <v>800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="V12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +1069,88 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>200</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1193,26 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1226,76 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="U17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="V17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="M18" s="3">
         <v>-3200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="P18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="S18" s="3">
         <v>-2600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="T18" s="3">
         <v>-2600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="U18" s="3">
         <v>-1900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="V18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1374,14 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,43 +1389,61 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,131 +1451,185 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="L21" s="3">
         <v>-2800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="M21" s="3">
         <v>-2800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="T21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="U21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="V21" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>900</v>
+      </c>
+      <c r="J22" s="3">
         <v>1900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="O22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="V22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-5100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="K23" s="3">
         <v>-4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="L23" s="3">
         <v>-3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="M23" s="3">
         <v>-3600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="O23" s="3">
         <v>-3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="P23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="S23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="T23" s="3">
         <v>-2800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="U23" s="3">
         <v>-2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="V23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1672,26 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1734,150 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J26" s="3">
         <v>-5100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="K26" s="3">
         <v>-4200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="L26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="M26" s="3">
         <v>-3600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="O26" s="3">
         <v>-3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="P26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="R26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="S26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="T26" s="3">
         <v>-2800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="U26" s="3">
         <v>-2100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="V26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J27" s="3">
         <v>-5100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="K27" s="3">
         <v>-4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="L27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="M27" s="3">
         <v>-3600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="O27" s="3">
         <v>-3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="P27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="Q27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="S27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="T27" s="3">
         <v>-2800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="U27" s="3">
         <v>-2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1920,26 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1982,26 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +2044,26 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +2106,26 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +2133,123 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J33" s="3">
         <v>-5100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="K33" s="3">
         <v>-4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="M33" s="3">
         <v>-3600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="O33" s="3">
         <v>-3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="P33" s="3">
         <v>-2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="Q33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="T33" s="3">
         <v>-2800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="U33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +2292,155 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J35" s="3">
         <v>-5100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="K35" s="3">
         <v>-4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="M35" s="3">
         <v>-3600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="O35" s="3">
         <v>-3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="P35" s="3">
         <v>-2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="Q35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="T35" s="3">
         <v>-2800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="U35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2457,14 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2481,76 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>200</v>
+      </c>
+      <c r="G41" s="3">
+        <v>300</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2593,26 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2655,26 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2717,26 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,34 +2744,34 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2187,43 +2779,61 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>600</v>
-      </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>100</v>
@@ -2231,8 +2841,26 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>500</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2903,150 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>700</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="P48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="Q48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="R48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="S48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="T48" s="3">
         <v>500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="U48" s="3">
         <v>500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="V48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>700</v>
+      </c>
+      <c r="F49" s="3">
+        <v>700</v>
+      </c>
+      <c r="G49" s="3">
+        <v>700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>700</v>
+      </c>
+      <c r="J49" s="3">
         <v>800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="K49" s="3">
         <v>800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="L49" s="3">
         <v>800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="M49" s="3">
         <v>800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="N49" s="3">
         <v>800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="O49" s="3">
         <v>900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="P49" s="3">
         <v>900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="Q49" s="3">
         <v>900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="R49" s="3">
         <v>900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="S49" s="3">
         <v>900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="T49" s="3">
         <v>900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="U49" s="3">
         <v>1000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="V49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +3089,26 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +3151,88 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +3275,88 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="J54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K54" s="3">
         <v>2400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="M54" s="3">
         <v>1200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="Q54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="R54" s="3">
         <v>1400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="S54" s="3">
         <v>1400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="T54" s="3">
         <v>1500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="U54" s="3">
         <v>1600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="V54" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +3373,14 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +3397,386 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2300</v>
       </c>
       <c r="O57" s="3">
         <v>2300</v>
       </c>
       <c r="P57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="T57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J58" s="3">
         <v>7500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="K58" s="3">
         <v>5500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="L58" s="3">
         <v>3500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="M58" s="3">
         <v>3600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="N58" s="3">
         <v>3200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="O58" s="3">
         <v>4400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="P58" s="3">
         <v>3700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="Q58" s="3">
         <v>3500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="R58" s="3">
         <v>2900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="S58" s="3">
         <v>2400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="T58" s="3">
         <v>1900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="U58" s="3">
         <v>1900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="V58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J59" s="3">
         <v>4400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="N59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="O59" s="3">
         <v>3900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="P59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="Q59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="R59" s="3">
         <v>2500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="S59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="T59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="U59" s="3">
         <v>1700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="V59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>18400</v>
+      </c>
+      <c r="I60" s="3">
         <v>13700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="J60" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K60" s="3">
         <v>11100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="L60" s="3">
         <v>8700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="M60" s="3">
         <v>9300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="N60" s="3">
         <v>8900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="O60" s="3">
         <v>10600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="P60" s="3">
         <v>8800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="Q60" s="3">
         <v>8400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="R60" s="3">
         <v>8000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="S60" s="3">
         <v>7000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="T60" s="3">
         <v>6100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="U60" s="3">
         <v>5800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="V60" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>200</v>
-      </c>
-      <c r="E61" s="3">
-        <v>200</v>
-      </c>
-      <c r="F61" s="3">
-        <v>500</v>
-      </c>
-      <c r="G61" s="3">
-        <v>500</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
       </c>
       <c r="L61" s="3">
+        <v>500</v>
+      </c>
+      <c r="M61" s="3">
+        <v>500</v>
+      </c>
+      <c r="N61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O61" s="3">
+        <v>400</v>
+      </c>
+      <c r="P61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="Q61" s="3">
+        <v>200</v>
+      </c>
+      <c r="R61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="S61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="T61" s="3">
+        <v>100</v>
+      </c>
+      <c r="U61" s="3">
         <v>300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="V61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>15100</v>
       </c>
       <c r="G62" s="3">
+        <v>15200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="V62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3819,26 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3881,26 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3943,88 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>16100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>18900</v>
+      </c>
+      <c r="I66" s="3">
+        <v>14200</v>
+      </c>
+      <c r="J66" s="3">
         <v>13900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="K66" s="3">
         <v>11400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="L66" s="3">
         <v>9200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="M66" s="3">
         <v>9800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="N66" s="3">
         <v>10200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="O66" s="3">
         <v>11100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="P66" s="3">
         <v>8900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="Q66" s="3">
         <v>8600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="R66" s="3">
         <v>8100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="S66" s="3">
         <v>7100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="T66" s="3">
         <v>6200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="U66" s="3">
         <v>6600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="V66" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +4041,14 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +4091,26 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +4153,26 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +4215,26 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +4277,88 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-105500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-89800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-83200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-86100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-78600</v>
+      </c>
+      <c r="J72" s="3">
         <v>-77000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="K72" s="3">
         <v>-72000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="L72" s="3">
         <v>-67800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="M72" s="3">
         <v>-63900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="N72" s="3">
         <v>-60400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="O72" s="3">
         <v>-57400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="P72" s="3">
         <v>-53900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="Q72" s="3">
         <v>-51400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="R72" s="3">
         <v>-49500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="S72" s="3">
         <v>-47500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="T72" s="3">
         <v>-44700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="U72" s="3">
         <v>-42000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="V72" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +4401,26 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +4463,26 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +4525,88 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="J76" s="3">
         <v>-12400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="K76" s="3">
         <v>-8900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="L76" s="3">
         <v>-7700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="M76" s="3">
         <v>-8600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="N76" s="3">
         <v>-8900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="O76" s="3">
         <v>-9900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="P76" s="3">
         <v>-7700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="Q76" s="3">
         <v>-6800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="R76" s="3">
         <v>-6700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="S76" s="3">
         <v>-5700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="T76" s="3">
         <v>-4700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="U76" s="3">
         <v>-5000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="V76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +4649,155 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J81" s="3">
         <v>-5100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="K81" s="3">
         <v>-4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="M81" s="3">
         <v>-3600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="O81" s="3">
         <v>-3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="P81" s="3">
         <v>-2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="Q81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="T81" s="3">
         <v>-2800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="U81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,25 +4814,31 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -3672,8 +4864,26 @@
       <c r="P83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4926,26 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4988,26 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +5050,26 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +5112,26 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +5174,88 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-1200</v>
       </c>
       <c r="K89" s="3">
         <v>-1400</v>
       </c>
       <c r="L89" s="3">
-        <v>-500</v>
+        <v>-2000</v>
       </c>
       <c r="M89" s="3">
-        <v>-800</v>
+        <v>-1600</v>
       </c>
       <c r="N89" s="3">
-        <v>-1200</v>
+        <v>-1400</v>
       </c>
       <c r="O89" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="P89" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +5272,19 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -3968,17 +5292,17 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -3986,20 +5310,38 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +5384,26 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,13 +5446,31 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
@@ -4100,23 +5478,23 @@
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4124,14 +5502,32 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +5544,14 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +5594,26 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +5656,26 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +5718,26 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +5780,88 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="I100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>500</v>
+      </c>
+      <c r="K100" s="3">
         <v>2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="L100" s="3">
         <v>2400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="N100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>700</v>
-      </c>
-      <c r="K100" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L100" s="3">
-        <v>500</v>
-      </c>
-      <c r="M100" s="3">
-        <v>800</v>
-      </c>
-      <c r="N100" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>1100</v>
       </c>
       <c r="P100" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R100" s="3">
+        <v>500</v>
+      </c>
+      <c r="S100" s="3">
+        <v>800</v>
+      </c>
+      <c r="T100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U100" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V100" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +5904,84 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>300</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>BRTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -871,14 +878,17 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,14 +943,17 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,16 +989,16 @@
         <v>200</v>
       </c>
       <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>400</v>
       </c>
       <c r="J12" s="3">
         <v>400</v>
@@ -993,10 +1007,10 @@
         <v>400</v>
       </c>
       <c r="L12" s="3">
+        <v>400</v>
+      </c>
+      <c r="M12" s="3">
         <v>500</v>
-      </c>
-      <c r="M12" s="3">
-        <v>400</v>
       </c>
       <c r="N12" s="3">
         <v>400</v>
@@ -1008,25 +1022,28 @@
         <v>400</v>
       </c>
       <c r="Q12" s="3">
+        <v>400</v>
+      </c>
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>600</v>
-      </c>
-      <c r="T12" s="3">
-        <v>800</v>
       </c>
       <c r="U12" s="3">
         <v>800</v>
       </c>
       <c r="V12" s="3">
+        <v>800</v>
+      </c>
+      <c r="W12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,38 +1116,38 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>4700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1141,16 +1161,19 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1258,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E17" s="3">
         <v>15100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
-      </c>
-      <c r="S17" s="3">
-        <v>2600</v>
       </c>
       <c r="T17" s="3">
         <v>2600</v>
       </c>
       <c r="U17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V17" s="3">
         <v>1900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-2600</v>
       </c>
       <c r="T18" s="3">
         <v>-2600</v>
       </c>
       <c r="U18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1395,40 +1429,40 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-2100</v>
       </c>
       <c r="I20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>200</v>
       </c>
       <c r="Q20" s="3">
         <v>200</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,25 +1488,25 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-2800</v>
       </c>
       <c r="L21" s="3">
         <v>-2800</v>
@@ -1478,84 +1515,87 @@
         <v>-2800</v>
       </c>
       <c r="N21" s="3">
-        <v>-2100</v>
+        <v>-2800</v>
       </c>
       <c r="O21" s="3">
         <v>-2100</v>
       </c>
       <c r="P21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-2500</v>
       </c>
       <c r="T21" s="3">
         <v>-2500</v>
       </c>
       <c r="U21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="V21" s="3">
         <v>-1800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>1400</v>
       </c>
       <c r="I22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>400</v>
       </c>
       <c r="Q22" s="3">
         <v>400</v>
       </c>
       <c r="R22" s="3">
+        <v>400</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
-      </c>
-      <c r="S22" s="3">
-        <v>200</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
@@ -1564,72 +1604,78 @@
         <v>200</v>
       </c>
       <c r="V22" s="3">
+        <v>200</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2139,40 +2209,40 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>2100</v>
       </c>
       <c r="I32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-200</v>
       </c>
       <c r="Q32" s="3">
         <v>-200</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,56 +2573,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
         <v>2500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2747,7 +2846,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2759,23 +2858,23 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -2797,56 +2896,59 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
@@ -2854,13 +2956,16 @@
         <v>0</v>
       </c>
       <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,13 +3026,16 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
@@ -2936,16 +3044,16 @@
         <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>600</v>
       </c>
       <c r="I48" s="3">
+        <v>600</v>
+      </c>
+      <c r="J48" s="3">
         <v>700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2954,13 +3062,13 @@
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>300</v>
@@ -2969,22 +3077,25 @@
         <v>300</v>
       </c>
       <c r="R48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S48" s="3">
         <v>400</v>
       </c>
       <c r="T48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U48" s="3">
         <v>500</v>
       </c>
       <c r="V48" s="3">
+        <v>500</v>
+      </c>
+      <c r="W48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2992,7 +3103,7 @@
         <v>600</v>
       </c>
       <c r="E49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F49" s="3">
         <v>700</v>
@@ -3007,7 +3118,7 @@
         <v>700</v>
       </c>
       <c r="J49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K49" s="3">
         <v>800</v>
@@ -3022,7 +3133,7 @@
         <v>800</v>
       </c>
       <c r="O49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="P49" s="3">
         <v>900</v>
@@ -3040,13 +3151,16 @@
         <v>900</v>
       </c>
       <c r="U49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="V49" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3189,18 +3309,18 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
@@ -3217,11 +3337,11 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1500</v>
       </c>
       <c r="J54" s="3">
         <v>1500</v>
       </c>
       <c r="K54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L54" s="3">
         <v>2400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1200</v>
       </c>
       <c r="P54" s="3">
         <v>1200</v>
       </c>
       <c r="Q54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R54" s="3">
         <v>1800</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1400</v>
       </c>
       <c r="S54" s="3">
         <v>1400</v>
       </c>
       <c r="T54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U54" s="3">
         <v>1500</v>
-      </c>
-      <c r="U54" s="3">
-        <v>1600</v>
       </c>
       <c r="V54" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>2000</v>
       </c>
       <c r="J57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2500</v>
-      </c>
-      <c r="T57" s="3">
-        <v>2300</v>
       </c>
       <c r="U57" s="3">
         <v>2300</v>
       </c>
       <c r="V57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="W57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3477,120 +3611,126 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2400</v>
-      </c>
-      <c r="T58" s="3">
-        <v>1900</v>
       </c>
       <c r="U58" s="3">
         <v>1900</v>
       </c>
       <c r="V58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3600</v>
-      </c>
-      <c r="M59" s="3">
-        <v>3700</v>
       </c>
       <c r="N59" s="3">
         <v>3700</v>
       </c>
       <c r="O59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P59" s="3">
         <v>3900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3598,73 +3738,76 @@
         <v>1300</v>
       </c>
       <c r="E60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>13700</v>
       </c>
       <c r="J60" s="3">
         <v>13700</v>
       </c>
       <c r="K60" s="3">
+        <v>13700</v>
+      </c>
+      <c r="L60" s="3">
         <v>11100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3675,31 +3818,31 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>500</v>
       </c>
       <c r="N61" s="3">
+        <v>500</v>
+      </c>
+      <c r="O61" s="3">
         <v>1200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>200</v>
-      </c>
-      <c r="R61" s="3">
-        <v>100</v>
       </c>
       <c r="S61" s="3">
         <v>100</v>
@@ -3708,13 +3851,16 @@
         <v>100</v>
       </c>
       <c r="U61" s="3">
+        <v>100</v>
+      </c>
+      <c r="V61" s="3">
         <v>300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3725,19 +3871,19 @@
         <v>400</v>
       </c>
       <c r="F62" s="3">
+        <v>400</v>
+      </c>
+      <c r="G62" s="3">
         <v>15100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>500</v>
       </c>
       <c r="I62" s="3">
         <v>500</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3746,13 +3892,13 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3770,13 +3916,16 @@
         <v>0</v>
       </c>
       <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
         <v>400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E66" s="3">
         <v>6400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-109600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-105500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-89800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-84100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-83200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-86100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-78600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-77000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-72000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-67800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-63900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-60400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-57400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-53900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-51400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-49500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-47500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-44700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-42000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-15100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-14400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-17500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-12800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-12400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-7700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-8600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-8900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-9900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-6800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4835,13 +5034,13 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5298,26 +5519,26 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -5334,14 +5555,17 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5484,32 +5714,32 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,56 +6171,59 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>BRTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -881,14 +888,17 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -946,14 +956,17 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,16 +1006,16 @@
         <v>200</v>
       </c>
       <c r="G12" s="3">
+        <v>200</v>
+      </c>
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>400</v>
       </c>
       <c r="K12" s="3">
         <v>400</v>
@@ -1010,10 +1024,10 @@
         <v>400</v>
       </c>
       <c r="M12" s="3">
+        <v>400</v>
+      </c>
+      <c r="N12" s="3">
         <v>500</v>
-      </c>
-      <c r="N12" s="3">
-        <v>400</v>
       </c>
       <c r="O12" s="3">
         <v>400</v>
@@ -1025,25 +1039,28 @@
         <v>400</v>
       </c>
       <c r="R12" s="3">
+        <v>400</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>600</v>
-      </c>
-      <c r="U12" s="3">
-        <v>800</v>
       </c>
       <c r="V12" s="3">
         <v>800</v>
       </c>
       <c r="W12" s="3">
+        <v>800</v>
+      </c>
+      <c r="X12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1119,38 +1139,38 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>4700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1164,16 +1184,19 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E17" s="3">
         <v>3600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
-      </c>
-      <c r="T17" s="3">
-        <v>2600</v>
       </c>
       <c r="U17" s="3">
         <v>2600</v>
       </c>
       <c r="V17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W17" s="3">
         <v>1900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-15100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-2600</v>
       </c>
       <c r="U18" s="3">
         <v>-2600</v>
       </c>
       <c r="V18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1432,40 +1466,40 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-2100</v>
       </c>
       <c r="J20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>200</v>
       </c>
       <c r="R20" s="3">
         <v>200</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,28 +1525,28 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-15000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-2800</v>
       </c>
       <c r="M21" s="3">
         <v>-2800</v>
@@ -1518,34 +1555,37 @@
         <v>-2800</v>
       </c>
       <c r="O21" s="3">
-        <v>-2100</v>
+        <v>-2800</v>
       </c>
       <c r="P21" s="3">
         <v>-2100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-2500</v>
       </c>
       <c r="U21" s="3">
         <v>-2500</v>
       </c>
       <c r="V21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="W21" s="3">
         <v>-1800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,52 +1593,52 @@
         <v>500</v>
       </c>
       <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>1400</v>
       </c>
       <c r="J22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>400</v>
       </c>
       <c r="R22" s="3">
         <v>400</v>
       </c>
       <c r="S22" s="3">
+        <v>400</v>
+      </c>
+      <c r="T22" s="3">
         <v>300</v>
-      </c>
-      <c r="T22" s="3">
-        <v>200</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
@@ -1607,75 +1647,81 @@
         <v>200</v>
       </c>
       <c r="W22" s="3">
+        <v>200</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2212,40 +2282,40 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>2100</v>
       </c>
       <c r="J32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-200</v>
       </c>
       <c r="R32" s="3">
         <v>-200</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,59 +2660,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,13 +2930,16 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2849,7 +2948,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2861,23 +2960,23 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
@@ -2899,59 +2998,62 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
@@ -2959,13 +3061,16 @@
         <v>0</v>
       </c>
       <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
         <v>100</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3038,7 +3146,7 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
@@ -3047,16 +3155,16 @@
         <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
       </c>
       <c r="J48" s="3">
+        <v>600</v>
+      </c>
+      <c r="K48" s="3">
         <v>700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -3065,13 +3173,13 @@
         <v>100</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>300</v>
@@ -3080,22 +3188,25 @@
         <v>300</v>
       </c>
       <c r="S48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T48" s="3">
         <v>400</v>
       </c>
       <c r="U48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V48" s="3">
         <v>500</v>
       </c>
       <c r="W48" s="3">
+        <v>500</v>
+      </c>
+      <c r="X48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3106,7 +3217,7 @@
         <v>600</v>
       </c>
       <c r="F49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G49" s="3">
         <v>700</v>
@@ -3121,7 +3232,7 @@
         <v>700</v>
       </c>
       <c r="K49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L49" s="3">
         <v>800</v>
@@ -3136,7 +3247,7 @@
         <v>800</v>
       </c>
       <c r="P49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Q49" s="3">
         <v>900</v>
@@ -3154,13 +3265,16 @@
         <v>900</v>
       </c>
       <c r="V49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="W49" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,41 +3406,44 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
@@ -3340,11 +3460,11 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1500</v>
       </c>
       <c r="K54" s="3">
         <v>1500</v>
       </c>
       <c r="L54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M54" s="3">
         <v>2400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1200</v>
       </c>
       <c r="Q54" s="3">
         <v>1200</v>
       </c>
       <c r="R54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S54" s="3">
         <v>1800</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1400</v>
       </c>
       <c r="T54" s="3">
         <v>1400</v>
       </c>
       <c r="U54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V54" s="3">
         <v>1500</v>
-      </c>
-      <c r="V54" s="3">
-        <v>1600</v>
       </c>
       <c r="W54" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,64 +3674,67 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>2000</v>
       </c>
       <c r="K57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2500</v>
-      </c>
-      <c r="U57" s="3">
-        <v>2300</v>
       </c>
       <c r="V57" s="3">
         <v>2300</v>
       </c>
       <c r="W57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="X57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3614,203 +3748,212 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2400</v>
-      </c>
-      <c r="U58" s="3">
-        <v>1900</v>
       </c>
       <c r="V58" s="3">
         <v>1900</v>
       </c>
       <c r="W58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="X58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>3700</v>
       </c>
       <c r="O59" s="3">
         <v>3700</v>
       </c>
       <c r="P59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q59" s="3">
         <v>3900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="E60" s="3">
         <v>1300</v>
       </c>
       <c r="F60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>13700</v>
       </c>
       <c r="K60" s="3">
         <v>13700</v>
       </c>
       <c r="L60" s="3">
+        <v>13700</v>
+      </c>
+      <c r="M60" s="3">
         <v>11100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E61" s="3">
         <v>5000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3821,31 +3964,31 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>500</v>
       </c>
       <c r="O61" s="3">
+        <v>500</v>
+      </c>
+      <c r="P61" s="3">
         <v>1200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>200</v>
-      </c>
-      <c r="S61" s="3">
-        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>100</v>
@@ -3854,18 +3997,21 @@
         <v>100</v>
       </c>
       <c r="V61" s="3">
+        <v>100</v>
+      </c>
+      <c r="W61" s="3">
         <v>300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
@@ -3874,19 +4020,19 @@
         <v>400</v>
       </c>
       <c r="G62" s="3">
+        <v>400</v>
+      </c>
+      <c r="H62" s="3">
         <v>15100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>500</v>
       </c>
       <c r="J62" s="3">
         <v>500</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3895,13 +4041,13 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3919,13 +4065,16 @@
         <v>0</v>
       </c>
       <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
         <v>400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E66" s="3">
         <v>6700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-113700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-109600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-105500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-89800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-84100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-83200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-86100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-78600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-77000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-72000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-67800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-63900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-60400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-57400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-53900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-51400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-49500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-47500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-44700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-42000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-15100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-14400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-17500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-12800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-12400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-8900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-7700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-8600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-8900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-7700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-6800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-5000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5037,13 +5236,13 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,28 +5719,29 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5528,20 +5749,20 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -5558,14 +5779,17 @@
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,28 +5921,31 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5723,26 +5953,26 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,64 +6299,67 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,59 +6423,62 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>BRTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -891,14 +897,17 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -959,14 +968,17 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,16 +1022,16 @@
         <v>200</v>
       </c>
       <c r="H12" s="3">
+        <v>200</v>
+      </c>
+      <c r="I12" s="3">
         <v>300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>400</v>
       </c>
       <c r="L12" s="3">
         <v>400</v>
@@ -1027,10 +1040,10 @@
         <v>400</v>
       </c>
       <c r="N12" s="3">
+        <v>400</v>
+      </c>
+      <c r="O12" s="3">
         <v>500</v>
-      </c>
-      <c r="O12" s="3">
-        <v>400</v>
       </c>
       <c r="P12" s="3">
         <v>400</v>
@@ -1042,25 +1055,28 @@
         <v>400</v>
       </c>
       <c r="S12" s="3">
+        <v>400</v>
+      </c>
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>600</v>
-      </c>
-      <c r="V12" s="3">
-        <v>800</v>
       </c>
       <c r="W12" s="3">
         <v>800</v>
       </c>
       <c r="X12" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1143,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>16200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1142,38 +1161,38 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>4700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1187,16 +1206,19 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1311,80 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E17" s="3">
         <v>3700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1800</v>
-      </c>
-      <c r="U17" s="3">
-        <v>2600</v>
       </c>
       <c r="V17" s="3">
         <v>2600</v>
       </c>
       <c r="W17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="X17" s="3">
         <v>1900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1392,70 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-2600</v>
       </c>
       <c r="V18" s="3">
         <v>-2600</v>
       </c>
       <c r="W18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="X18" s="3">
         <v>-1900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1469,40 +1502,40 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-2100</v>
       </c>
       <c r="K20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>200</v>
       </c>
       <c r="S20" s="3">
         <v>200</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,31 +1561,31 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-15000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-2800</v>
       </c>
       <c r="N21" s="3">
         <v>-2800</v>
@@ -1558,90 +1594,93 @@
         <v>-2800</v>
       </c>
       <c r="P21" s="3">
-        <v>-2100</v>
+        <v>-2800</v>
       </c>
       <c r="Q21" s="3">
         <v>-2100</v>
       </c>
       <c r="R21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-2000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-2500</v>
       </c>
       <c r="V21" s="3">
         <v>-2500</v>
       </c>
       <c r="W21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="X21" s="3">
         <v>-1800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>500</v>
       </c>
       <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>1400</v>
       </c>
       <c r="K22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>400</v>
       </c>
       <c r="S22" s="3">
         <v>400</v>
       </c>
       <c r="T22" s="3">
+        <v>400</v>
+      </c>
+      <c r="U22" s="3">
         <v>300</v>
-      </c>
-      <c r="U22" s="3">
-        <v>200</v>
       </c>
       <c r="V22" s="3">
         <v>200</v>
@@ -1650,78 +1689,84 @@
         <v>200</v>
       </c>
       <c r="X22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2285,40 +2354,40 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>2100</v>
       </c>
       <c r="K32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-200</v>
       </c>
       <c r="S32" s="3">
         <v>-200</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,62 +2746,63 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,16 +3028,19 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2951,7 +3049,7 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2963,23 +3061,23 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
@@ -3001,62 +3099,65 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
@@ -3064,13 +3165,16 @@
         <v>0</v>
       </c>
       <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
         <v>100</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3149,7 +3256,7 @@
         <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
@@ -3158,16 +3265,16 @@
         <v>500</v>
       </c>
       <c r="I48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3">
         <v>600</v>
       </c>
       <c r="K48" s="3">
+        <v>600</v>
+      </c>
+      <c r="L48" s="3">
         <v>700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -3176,13 +3283,13 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>300</v>
@@ -3191,22 +3298,25 @@
         <v>300</v>
       </c>
       <c r="T48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U48" s="3">
         <v>400</v>
       </c>
       <c r="V48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="W48" s="3">
         <v>500</v>
       </c>
       <c r="X48" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3220,7 +3330,7 @@
         <v>600</v>
       </c>
       <c r="G49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H49" s="3">
         <v>700</v>
@@ -3235,7 +3345,7 @@
         <v>700</v>
       </c>
       <c r="L49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M49" s="3">
         <v>800</v>
@@ -3250,7 +3360,7 @@
         <v>800</v>
       </c>
       <c r="Q49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="R49" s="3">
         <v>900</v>
@@ -3268,13 +3378,16 @@
         <v>900</v>
       </c>
       <c r="W49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="X49" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3439,14 +3558,14 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
@@ -3463,11 +3582,11 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>100</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1500</v>
       </c>
       <c r="L54" s="3">
         <v>1500</v>
       </c>
       <c r="M54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N54" s="3">
         <v>2400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1200</v>
       </c>
       <c r="R54" s="3">
         <v>1200</v>
       </c>
       <c r="S54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T54" s="3">
         <v>1800</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1400</v>
       </c>
       <c r="U54" s="3">
         <v>1400</v>
       </c>
       <c r="V54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W54" s="3">
         <v>1500</v>
-      </c>
-      <c r="W54" s="3">
-        <v>1600</v>
       </c>
       <c r="X54" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3677,69 +3807,72 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>2000</v>
       </c>
       <c r="L57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2500</v>
-      </c>
-      <c r="V57" s="3">
-        <v>2300</v>
       </c>
       <c r="W57" s="3">
         <v>2300</v>
       </c>
       <c r="X57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Y57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3751,212 +3884,221 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2400</v>
-      </c>
-      <c r="V58" s="3">
-        <v>1900</v>
       </c>
       <c r="W58" s="3">
         <v>1900</v>
       </c>
       <c r="X58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>3700</v>
       </c>
       <c r="P59" s="3">
         <v>3700</v>
       </c>
       <c r="Q59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R59" s="3">
         <v>3900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>400</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1300</v>
       </c>
       <c r="F60" s="3">
         <v>1300</v>
       </c>
       <c r="G60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>13700</v>
       </c>
       <c r="L60" s="3">
         <v>13700</v>
       </c>
       <c r="M60" s="3">
+        <v>13700</v>
+      </c>
+      <c r="N60" s="3">
         <v>11100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>5800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3967,31 +4109,31 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>200</v>
       </c>
       <c r="N61" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="O61" s="3">
         <v>500</v>
       </c>
       <c r="P61" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>200</v>
-      </c>
-      <c r="T61" s="3">
-        <v>100</v>
       </c>
       <c r="U61" s="3">
         <v>100</v>
@@ -4000,13 +4142,16 @@
         <v>100</v>
       </c>
       <c r="W61" s="3">
+        <v>100</v>
+      </c>
+      <c r="X61" s="3">
         <v>300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4014,7 +4159,7 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
@@ -4023,19 +4168,19 @@
         <v>400</v>
       </c>
       <c r="H62" s="3">
+        <v>400</v>
+      </c>
+      <c r="I62" s="3">
         <v>15100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>500</v>
       </c>
       <c r="K62" s="3">
         <v>500</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -4044,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4068,13 +4213,16 @@
         <v>0</v>
       </c>
       <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
         <v>400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-134100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-113700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-109600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-105500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-89800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-84100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-83200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-86100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-78600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-77000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-72000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-67800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-63900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-60400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-57400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-53900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-51400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-49500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-47500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-44700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-42000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-15100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-14400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-17500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-12800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-12400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-8900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-7700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-8600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-9900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-7700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-6700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-5700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-5000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5239,13 +5437,13 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5752,20 +5972,20 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
@@ -5782,14 +6002,17 @@
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5956,26 +6185,26 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>21100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,62 +6674,65 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>BRTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,120 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -835,8 +843,14 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -900,14 +914,20 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -971,14 +991,20 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,16 +1030,18 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F12" s="3">
         <v>200</v>
@@ -1025,31 +1053,31 @@
         <v>200</v>
       </c>
       <c r="I12" s="3">
+        <v>200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>200</v>
+      </c>
+      <c r="K12" s="3">
         <v>300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>400</v>
       </c>
       <c r="M12" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>400</v>
       </c>
       <c r="O12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P12" s="3">
         <v>400</v>
       </c>
       <c r="Q12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R12" s="3">
         <v>400</v>
@@ -1058,25 +1086,31 @@
         <v>400</v>
       </c>
       <c r="T12" s="3">
+        <v>400</v>
+      </c>
+      <c r="U12" s="3">
+        <v>400</v>
+      </c>
+      <c r="V12" s="3">
         <v>200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,59 +1180,65 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F14" s="3">
         <v>16200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>4700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>3200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1209,16 +1249,22 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F17" s="3">
         <v>20200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>15100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-4600</v>
       </c>
       <c r="E18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-15100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-2300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-2600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-2600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,13 +1547,15 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1505,44 +1573,44 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1552,221 +1620,245 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-4600</v>
       </c>
       <c r="E21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-15000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-5500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-6200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-2800</v>
       </c>
       <c r="P21" s="3">
         <v>-2800</v>
       </c>
       <c r="Q21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="S21" s="3">
         <v>-2100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-2000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-2500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-2500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>300</v>
-      </c>
-      <c r="V22" s="3">
-        <v>200</v>
-      </c>
-      <c r="W22" s="3">
-        <v>200</v>
       </c>
       <c r="X22" s="3">
         <v>200</v>
       </c>
       <c r="Y22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-20400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-15700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-5800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-2800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-20400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-15700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-4700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-2800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-20400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-15700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-4700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-2800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,13 +2467,19 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2357,44 +2497,44 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2404,79 +2544,91 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-20400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-15700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-4700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-2800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-20400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-15700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-4700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-2800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,68 +2919,70 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F41" s="3">
         <v>21000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
@@ -2818,8 +2992,14 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3040,22 +3238,22 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3064,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3082,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3102,79 +3300,91 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F46" s="3">
         <v>21500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>500</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
       <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
         <v>100</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,79 +3454,91 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
       </c>
       <c r="J48" s="3">
+        <v>500</v>
+      </c>
+      <c r="K48" s="3">
+        <v>500</v>
+      </c>
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
       </c>
       <c r="P48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
         <v>200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>200</v>
-      </c>
-      <c r="R48" s="3">
-        <v>300</v>
-      </c>
-      <c r="S48" s="3">
-        <v>300</v>
       </c>
       <c r="T48" s="3">
         <v>300</v>
       </c>
       <c r="U48" s="3">
+        <v>300</v>
+      </c>
+      <c r="V48" s="3">
+        <v>300</v>
+      </c>
+      <c r="W48" s="3">
         <v>400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3333,10 +3555,10 @@
         <v>600</v>
       </c>
       <c r="H49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J49" s="3">
         <v>700</v>
@@ -3348,10 +3570,10 @@
         <v>700</v>
       </c>
       <c r="M49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O49" s="3">
         <v>800</v>
@@ -3363,10 +3585,10 @@
         <v>800</v>
       </c>
       <c r="R49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T49" s="3">
         <v>900</v>
@@ -3381,13 +3603,19 @@
         <v>900</v>
       </c>
       <c r="X49" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z49" s="3">
         <v>1000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3561,17 +3801,17 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
@@ -3585,22 +3825,28 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>100</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
       <c r="X52" s="3">
         <v>0</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F54" s="3">
         <v>22500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1600</v>
       </c>
       <c r="K54" s="3">
         <v>1400</v>
       </c>
       <c r="L54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1600</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1300</v>
       </c>
       <c r="R54" s="3">
         <v>1200</v>
       </c>
       <c r="S54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T54" s="3">
         <v>1200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V54" s="3">
         <v>1800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,91 +4055,99 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2400</v>
-      </c>
-      <c r="T57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="U57" s="3">
-        <v>2700</v>
       </c>
       <c r="V57" s="3">
         <v>2500</v>
       </c>
       <c r="W57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="X57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y57" s="3">
         <v>2300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -3887,224 +4155,242 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>8000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>7100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>5500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>3200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>2900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>18400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>13700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>13700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>11100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>9300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>8900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>10600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>8800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>8400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>8000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>7000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>6100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>5800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4112,97 +4398,103 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>400</v>
-      </c>
-      <c r="S61" s="3">
-        <v>100</v>
-      </c>
-      <c r="T61" s="3">
-        <v>200</v>
       </c>
       <c r="U61" s="3">
         <v>100</v>
       </c>
       <c r="V61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W61" s="3">
         <v>100</v>
       </c>
       <c r="X61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z61" s="3">
         <v>300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
       </c>
       <c r="F62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
       </c>
       <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>400</v>
+      </c>
+      <c r="K62" s="3">
         <v>15100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>15200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
@@ -4216,13 +4508,19 @@
         <v>0</v>
       </c>
       <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
         <v>400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,8 +4744,14 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4443,70 +4759,76 @@
         <v>900</v>
       </c>
       <c r="E66" s="3">
+        <v>800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>900</v>
+      </c>
+      <c r="G66" s="3">
         <v>7100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>16500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>16100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>18900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>14200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>13900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>10200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>11100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>8900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>8600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>8100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>7100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>6200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>6600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-143600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-134100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-113700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-109600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-105500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-89800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-84100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-83200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-86100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-78600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-77000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-72000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-67800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-63900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-60400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-57400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-53900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-51400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-49500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-47500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-44700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-42000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F76" s="3">
         <v>21600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-15100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-14400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-17500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-12800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-12400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-8900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-7700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-8900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-9900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-7700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-6800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-6700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-5700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-4700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-20400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-15700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-4700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-2800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5440,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5449,7 +5847,7 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-800</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-1100</v>
       </c>
       <c r="Y89" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,31 +6380,33 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5975,23 +6417,23 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3" t="s">
+      <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
@@ -6005,14 +6447,20 @@
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,31 +6607,37 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -6188,30 +6648,30 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3" t="s">
+      <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +7021,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>21100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>3500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>500</v>
-      </c>
-      <c r="L100" s="3">
-        <v>1700</v>
       </c>
       <c r="M100" s="3">
         <v>500</v>
       </c>
       <c r="N100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O100" s="3">
+        <v>500</v>
+      </c>
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>1100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,68 +7175,74 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F102" s="3">
         <v>19900</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-700</v>
       </c>
       <c r="G102" s="3">
         <v>-600</v>
       </c>
       <c r="H102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J102" s="3">
         <v>2900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
@@ -6746,6 +7250,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>BRTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,128 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -920,14 +927,17 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -997,14 +1007,17 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,19 +1045,20 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>200</v>
       </c>
       <c r="G12" s="3">
         <v>200</v>
@@ -1059,16 +1073,16 @@
         <v>200</v>
       </c>
       <c r="K12" s="3">
+        <v>200</v>
+      </c>
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
-      </c>
-      <c r="N12" s="3">
-        <v>400</v>
       </c>
       <c r="O12" s="3">
         <v>400</v>
@@ -1077,10 +1091,10 @@
         <v>400</v>
       </c>
       <c r="Q12" s="3">
+        <v>400</v>
+      </c>
+      <c r="R12" s="3">
         <v>500</v>
-      </c>
-      <c r="R12" s="3">
-        <v>400</v>
       </c>
       <c r="S12" s="3">
         <v>400</v>
@@ -1092,25 +1106,28 @@
         <v>400</v>
       </c>
       <c r="V12" s="3">
+        <v>400</v>
+      </c>
+      <c r="W12" s="3">
         <v>200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>600</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>800</v>
       </c>
       <c r="Z12" s="3">
         <v>800</v>
       </c>
       <c r="AA12" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,14 +1215,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>16200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1210,38 +1230,38 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>4700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1255,16 +1275,19 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>100</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E17" s="3">
         <v>4700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1800</v>
-      </c>
-      <c r="X17" s="3">
-        <v>2600</v>
       </c>
       <c r="Y17" s="3">
         <v>2600</v>
       </c>
       <c r="Z17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AA17" s="3">
         <v>1900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-2600</v>
       </c>
       <c r="Y18" s="3">
         <v>-2600</v>
       </c>
       <c r="Z18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,13 +1582,14 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1579,40 +1613,40 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>-2100</v>
       </c>
       <c r="N20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>200</v>
       </c>
       <c r="V20" s="3">
         <v>200</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1626,49 +1660,52 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-20200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-15000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-2800</v>
       </c>
       <c r="Q21" s="3">
         <v>-2800</v>
@@ -1677,34 +1714,37 @@
         <v>-2800</v>
       </c>
       <c r="S21" s="3">
-        <v>-2100</v>
+        <v>-2800</v>
       </c>
       <c r="T21" s="3">
         <v>-2100</v>
       </c>
       <c r="U21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-2000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-2500</v>
       </c>
       <c r="Y21" s="3">
         <v>-2500</v>
       </c>
       <c r="Z21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1715,61 +1755,61 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>500</v>
       </c>
       <c r="H22" s="3">
         <v>500</v>
       </c>
       <c r="I22" s="3">
+        <v>500</v>
+      </c>
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>1400</v>
       </c>
       <c r="N22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1300</v>
-      </c>
-      <c r="U22" s="3">
-        <v>400</v>
       </c>
       <c r="V22" s="3">
         <v>400</v>
       </c>
       <c r="W22" s="3">
+        <v>400</v>
+      </c>
+      <c r="X22" s="3">
         <v>300</v>
-      </c>
-      <c r="X22" s="3">
-        <v>200</v>
       </c>
       <c r="Y22" s="3">
         <v>200</v>
@@ -1778,10 +1818,13 @@
         <v>200</v>
       </c>
       <c r="AA22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1789,76 +1832,79 @@
         <v>-4700</v>
       </c>
       <c r="E23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2020,76 +2072,79 @@
         <v>-4700</v>
       </c>
       <c r="E26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2097,76 +2152,79 @@
         <v>-4700</v>
       </c>
       <c r="E27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,13 +2540,16 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2503,40 +2573,40 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>2100</v>
       </c>
       <c r="N32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-200</v>
       </c>
       <c r="V32" s="3">
         <v>-200</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2550,8 +2620,11 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2559,76 +2632,79 @@
         <v>-4700</v>
       </c>
       <c r="E33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2780,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2713,158 +2792,164 @@
         <v>-4700</v>
       </c>
       <c r="E35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,71 +3007,72 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E41" s="3">
         <v>17900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
@@ -2998,31 +3085,34 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>9900</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3238,16 +3337,16 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -3256,7 +3355,7 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3268,23 +3367,23 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
@@ -3306,71 +3405,74 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E46" s="3">
         <v>18300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
-      </c>
-      <c r="R46" s="3">
-        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>200</v>
+      </c>
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
       <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
       <c r="X46" s="3">
         <v>0</v>
       </c>
@@ -3378,13 +3480,16 @@
         <v>0</v>
       </c>
       <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
         <v>100</v>
       </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,19 +3565,22 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
@@ -3481,7 +3589,7 @@
         <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
@@ -3490,16 +3598,16 @@
         <v>500</v>
       </c>
       <c r="L48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
       </c>
       <c r="N48" s="3">
+        <v>600</v>
+      </c>
+      <c r="O48" s="3">
         <v>700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -3508,13 +3616,13 @@
         <v>100</v>
       </c>
       <c r="R48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
       </c>
       <c r="T48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U48" s="3">
         <v>300</v>
@@ -3523,27 +3631,30 @@
         <v>300</v>
       </c>
       <c r="W48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X48" s="3">
         <v>400</v>
       </c>
       <c r="Y48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Z48" s="3">
         <v>500</v>
       </c>
       <c r="AA48" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E49" s="3">
         <v>600</v>
@@ -3561,7 +3672,7 @@
         <v>600</v>
       </c>
       <c r="J49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K49" s="3">
         <v>700</v>
@@ -3576,7 +3687,7 @@
         <v>700</v>
       </c>
       <c r="O49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P49" s="3">
         <v>800</v>
@@ -3591,7 +3702,7 @@
         <v>800</v>
       </c>
       <c r="T49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="U49" s="3">
         <v>900</v>
@@ -3609,13 +3720,16 @@
         <v>900</v>
       </c>
       <c r="Z49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AA49" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3807,14 +3927,14 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
@@ -3831,11 +3951,11 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>100</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
       <c r="Y52" s="3">
         <v>0</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E54" s="3">
         <v>19400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1500</v>
       </c>
       <c r="O54" s="3">
         <v>1500</v>
       </c>
       <c r="P54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q54" s="3">
         <v>2400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1300</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1200</v>
       </c>
       <c r="U54" s="3">
         <v>1200</v>
       </c>
       <c r="V54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W54" s="3">
         <v>1800</v>
-      </c>
-      <c r="W54" s="3">
-        <v>1400</v>
       </c>
       <c r="X54" s="3">
         <v>1400</v>
       </c>
       <c r="Y54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z54" s="3">
         <v>1500</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>1600</v>
       </c>
       <c r="AA54" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,19 +4187,20 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -4078,64 +4209,67 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>2000</v>
       </c>
       <c r="O57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2500</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>2300</v>
       </c>
       <c r="Z57" s="3">
         <v>2300</v>
       </c>
       <c r="AA57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AB57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4146,11 +4280,11 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -4161,58 +4295,61 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2400</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>1900</v>
       </c>
       <c r="Z58" s="3">
         <v>1900</v>
       </c>
       <c r="AA58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AB58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4220,153 +4357,159 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>3700</v>
       </c>
       <c r="S59" s="3">
         <v>3700</v>
       </c>
       <c r="T59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="U59" s="3">
         <v>3900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1300</v>
       </c>
       <c r="I60" s="3">
         <v>1300</v>
       </c>
       <c r="J60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>13700</v>
       </c>
       <c r="O60" s="3">
         <v>13700</v>
       </c>
       <c r="P60" s="3">
+        <v>13700</v>
+      </c>
+      <c r="Q60" s="3">
         <v>11100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4377,23 +4520,23 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4404,31 +4547,31 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>200</v>
       </c>
       <c r="Q61" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="R61" s="3">
         <v>500</v>
       </c>
       <c r="S61" s="3">
+        <v>500</v>
+      </c>
+      <c r="T61" s="3">
         <v>1200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>200</v>
-      </c>
-      <c r="W61" s="3">
-        <v>100</v>
       </c>
       <c r="X61" s="3">
         <v>100</v>
@@ -4437,13 +4580,16 @@
         <v>100</v>
       </c>
       <c r="Z61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA61" s="3">
         <v>300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4451,7 +4597,7 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -4460,7 +4606,7 @@
         <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
@@ -4469,19 +4615,19 @@
         <v>400</v>
       </c>
       <c r="K62" s="3">
+        <v>400</v>
+      </c>
+      <c r="L62" s="3">
         <v>15100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>500</v>
       </c>
       <c r="N62" s="3">
         <v>500</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4490,13 +4636,13 @@
         <v>0</v>
       </c>
       <c r="R62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
       </c>
       <c r="T62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4514,13 +4660,16 @@
         <v>0</v>
       </c>
       <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
         <v>400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4759,76 +4917,79 @@
         <v>900</v>
       </c>
       <c r="E66" s="3">
+        <v>900</v>
+      </c>
+      <c r="F66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-148300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-143600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-139000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-134100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-113700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-109600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-105500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-89800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-84100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-83200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-86100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-78600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-77000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-72000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-67800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-63900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-60400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-57400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-53900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-51400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-49500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-47500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-44700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-42000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-15100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-14400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-17500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-12800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-12400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-7700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-8600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-8900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-9900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-7700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-6800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-6700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +5815,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5717,76 +5912,79 @@
         <v>-4700</v>
       </c>
       <c r="E81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5844,13 +6043,13 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,19 +6602,20 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>-100</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -6408,8 +6629,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -6423,20 +6644,20 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
@@ -6453,14 +6674,17 @@
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,19 +6840,22 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-9900</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>-100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -6639,8 +6869,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -6654,26 +6884,26 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7039,73 +7285,76 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>21100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,71 +7430,74 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>19900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>BRTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -785,14 +792,14 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -856,8 +863,14 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -930,14 +943,20 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0</v>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1010,14 +1029,20 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,25 +1071,27 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>700</v>
+      </c>
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>200</v>
       </c>
       <c r="I12" s="3">
         <v>200</v>
@@ -1076,31 +1103,31 @@
         <v>200</v>
       </c>
       <c r="L12" s="3">
+        <v>200</v>
+      </c>
+      <c r="M12" s="3">
+        <v>200</v>
+      </c>
+      <c r="N12" s="3">
         <v>300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>400</v>
-      </c>
-      <c r="N12" s="3">
-        <v>200</v>
       </c>
       <c r="O12" s="3">
         <v>400</v>
       </c>
       <c r="P12" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q12" s="3">
         <v>400</v>
       </c>
       <c r="R12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S12" s="3">
         <v>400</v>
       </c>
       <c r="T12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U12" s="3">
         <v>400</v>
@@ -1109,25 +1136,31 @@
         <v>400</v>
       </c>
       <c r="W12" s="3">
+        <v>400</v>
+      </c>
+      <c r="X12" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y12" s="3">
         <v>200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>800</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,56 +1257,56 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>16200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>4700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>3200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1278,16 +1317,22 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>100</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,88 +1444,96 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4600</v>
+        <v>5800</v>
       </c>
       <c r="E17" s="3">
         <v>4700</v>
       </c>
       <c r="F17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H17" s="3">
         <v>4800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>20200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>15100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,79 +1541,85 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H18" s="3">
         <v>-4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-20200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-15100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-3200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-2300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,7 +1659,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1616,44 +1683,44 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
@@ -1663,8 +1730,14 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,239 +1745,257 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H21" s="3">
         <v>-4800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-20200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-15000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-5500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-6200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-2800</v>
       </c>
       <c r="S21" s="3">
         <v>-2800</v>
       </c>
       <c r="T21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="V21" s="3">
         <v>-2100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-2000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>1900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>1300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>300</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>200</v>
       </c>
       <c r="AA22" s="3">
         <v>200</v>
       </c>
       <c r="AB22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-4800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-20400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-15700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-7600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-4200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-20400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-15700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-5800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-7600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-4200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-3600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-20400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-15700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-5800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-7600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-4200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-3600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-3500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,7 +2691,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2576,44 +2715,44 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
@@ -2623,88 +2762,100 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-20400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-15700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-5800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-7600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-4200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-3600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-3500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-20400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-15700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-5800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-7600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-4200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-3600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-3500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,77 +3179,79 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F41" s="3">
         <v>6600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>17900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>19300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>21000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
       <c r="Z41" s="3">
         <v>0</v>
       </c>
@@ -3088,20 +3261,26 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F42" s="3">
         <v>9900</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3114,11 +3293,11 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -3168,8 +3347,14 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3519,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3340,28 +3537,28 @@
         <v>400</v>
       </c>
       <c r="F45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3370,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3388,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3408,88 +3605,100 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F46" s="3">
         <v>16900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>18300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>19900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>21500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
       <c r="Z46" s="3">
         <v>0</v>
       </c>
       <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
         <v>100</v>
       </c>
-      <c r="AB46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3577,90 +3792,96 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
       </c>
       <c r="J48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L48" s="3">
         <v>500</v>
       </c>
       <c r="M48" s="3">
+        <v>500</v>
+      </c>
+      <c r="N48" s="3">
+        <v>500</v>
+      </c>
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
       </c>
       <c r="S48" s="3">
+        <v>100</v>
+      </c>
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+      <c r="U48" s="3">
         <v>200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>200</v>
-      </c>
-      <c r="U48" s="3">
-        <v>300</v>
-      </c>
-      <c r="V48" s="3">
-        <v>300</v>
       </c>
       <c r="W48" s="3">
         <v>300</v>
       </c>
       <c r="X48" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z48" s="3">
         <v>400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>800</v>
+      </c>
+      <c r="F49" s="3">
         <v>500</v>
-      </c>
-      <c r="E49" s="3">
-        <v>600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>600</v>
       </c>
       <c r="G49" s="3">
         <v>600</v>
@@ -3675,10 +3896,10 @@
         <v>600</v>
       </c>
       <c r="K49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M49" s="3">
         <v>700</v>
@@ -3690,10 +3911,10 @@
         <v>700</v>
       </c>
       <c r="P49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R49" s="3">
         <v>800</v>
@@ -3705,10 +3926,10 @@
         <v>800</v>
       </c>
       <c r="U49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="V49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="W49" s="3">
         <v>900</v>
@@ -3723,13 +3944,19 @@
         <v>900</v>
       </c>
       <c r="AA49" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC49" s="3">
         <v>1000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3930,17 +4169,17 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
@@ -3954,22 +4193,28 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
         <v>100</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>0</v>
-      </c>
       <c r="AA52" s="3">
         <v>0</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F54" s="3">
         <v>17900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>19400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>20900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>22500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1600</v>
       </c>
       <c r="N54" s="3">
         <v>1400</v>
       </c>
       <c r="O54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1600</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1200</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1300</v>
       </c>
       <c r="U54" s="3">
         <v>1200</v>
       </c>
       <c r="V54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W54" s="3">
         <v>1200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y54" s="3">
         <v>1800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4447,96 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2400</v>
-      </c>
-      <c r="W57" s="3">
-        <v>2500</v>
-      </c>
-      <c r="X57" s="3">
-        <v>2700</v>
       </c>
       <c r="Y57" s="3">
         <v>2500</v>
       </c>
       <c r="Z57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AB57" s="3">
         <v>2300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>2300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4283,14 +4550,14 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -4298,218 +4565,236 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>1100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>8000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>7100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>7500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>5500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>3500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>4400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>3700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>3500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>2900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>2400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>1900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>8300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>3700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>400</v>
+      </c>
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>18400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>13700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>13700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>11100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>8700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>9300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>8900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>10600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>8800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>8400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>8000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>7000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>6100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>5800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4523,26 +4808,26 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4550,106 +4835,112 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>400</v>
-      </c>
-      <c r="V61" s="3">
-        <v>100</v>
-      </c>
-      <c r="W61" s="3">
-        <v>200</v>
       </c>
       <c r="X61" s="3">
         <v>100</v>
       </c>
       <c r="Y61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z61" s="3">
         <v>100</v>
       </c>
       <c r="AA61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC61" s="3">
         <v>300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
       </c>
       <c r="I62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
       </c>
       <c r="L62" s="3">
+        <v>400</v>
+      </c>
+      <c r="M62" s="3">
+        <v>400</v>
+      </c>
+      <c r="N62" s="3">
         <v>15100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>15200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>500</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>100</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
@@ -4663,13 +4954,19 @@
         <v>0</v>
       </c>
       <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
         <v>400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>600</v>
+      </c>
+      <c r="F66" s="3">
         <v>900</v>
-      </c>
-      <c r="E66" s="3">
-        <v>900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>800</v>
       </c>
       <c r="G66" s="3">
         <v>900</v>
       </c>
       <c r="H66" s="3">
+        <v>800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>900</v>
+      </c>
+      <c r="J66" s="3">
         <v>7100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>16500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>16100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>18900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>14200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>13900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>11400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>9200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>9800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>10200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>11100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>8900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>8600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>8100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>7100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>6200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>6600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-158300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-152600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-148300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-143600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-139000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-134100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-113700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-109600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-105500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-89800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-84100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-83200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-86100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-78600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-72000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-67800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-63900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-60400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-57400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-53900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-51400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-49500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-47500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-44700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-42000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F76" s="3">
         <v>17000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>18600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>20100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>21600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-15100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-14400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-17500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-12800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-8900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-7700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-8600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-8900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-9900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-7700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-6800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-5000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-20400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-15700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-5800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-7600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-4200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-3600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-3500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6046,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -6055,7 +6452,7 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-1400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-1100</v>
       </c>
       <c r="AB89" s="3">
         <v>-1200</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>-1200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,40 +7042,42 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6647,23 +7088,23 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
@@ -6677,14 +7118,20 @@
       <c r="Z91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,26 +7296,32 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-9900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6872,11 +7331,11 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6887,29 +7346,29 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7288,73 +7779,79 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>21100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>3500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>500</v>
-      </c>
-      <c r="O100" s="3">
-        <v>1700</v>
       </c>
       <c r="P100" s="3">
         <v>500</v>
       </c>
       <c r="Q100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R100" s="3">
+        <v>500</v>
+      </c>
+      <c r="S100" s="3">
         <v>2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>2400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>1200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>1100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,77 +7930,83 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-11400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>19900</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-700</v>
       </c>
       <c r="J102" s="3">
         <v>-600</v>
       </c>
       <c r="K102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M102" s="3">
         <v>2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>500</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>BRTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,135 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -798,11 +802,11 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -949,14 +956,17 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1035,14 +1045,17 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,28 +1086,29 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>200</v>
       </c>
       <c r="J12" s="3">
         <v>200</v>
@@ -1109,16 +1123,16 @@
         <v>200</v>
       </c>
       <c r="N12" s="3">
+        <v>200</v>
+      </c>
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>200</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>400</v>
       </c>
       <c r="R12" s="3">
         <v>400</v>
@@ -1127,10 +1141,10 @@
         <v>400</v>
       </c>
       <c r="T12" s="3">
+        <v>400</v>
+      </c>
+      <c r="U12" s="3">
         <v>500</v>
-      </c>
-      <c r="U12" s="3">
-        <v>400</v>
       </c>
       <c r="V12" s="3">
         <v>400</v>
@@ -1142,25 +1156,28 @@
         <v>400</v>
       </c>
       <c r="Y12" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z12" s="3">
         <v>200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>600</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>800</v>
       </c>
       <c r="AC12" s="3">
         <v>800</v>
       </c>
       <c r="AD12" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,14 +1283,14 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>16200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1278,38 +1298,38 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>4700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>300</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1323,16 +1343,19 @@
         <v>0</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>100</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>5800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1800</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>2600</v>
       </c>
       <c r="AB17" s="3">
         <v>2600</v>
       </c>
       <c r="AC17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AD17" s="3">
         <v>1900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-3100</v>
       </c>
       <c r="E18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-4600</v>
       </c>
       <c r="G18" s="3">
         <v>-4600</v>
       </c>
       <c r="H18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-4800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-2600</v>
       </c>
       <c r="AB18" s="3">
         <v>-2600</v>
       </c>
       <c r="AC18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-1900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,20 +1683,21 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1689,40 +1723,40 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-2100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
-      </c>
-      <c r="X20" s="3">
-        <v>200</v>
       </c>
       <c r="Y20" s="3">
         <v>200</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
@@ -1736,58 +1770,61 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-2900</v>
       </c>
       <c r="E21" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-4600</v>
       </c>
       <c r="G21" s="3">
         <v>-4600</v>
       </c>
       <c r="H21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-4800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-20200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-15000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-2800</v>
       </c>
       <c r="T21" s="3">
         <v>-2800</v>
@@ -1796,34 +1833,37 @@
         <v>-2800</v>
       </c>
       <c r="V21" s="3">
-        <v>-2100</v>
+        <v>-2800</v>
       </c>
       <c r="W21" s="3">
         <v>-2100</v>
       </c>
       <c r="X21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-2500</v>
       </c>
       <c r="AB21" s="3">
         <v>-2500</v>
       </c>
       <c r="AC21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-1800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1833,8 +1873,8 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1843,61 +1883,61 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>500</v>
       </c>
       <c r="K22" s="3">
         <v>500</v>
       </c>
       <c r="L22" s="3">
+        <v>500</v>
+      </c>
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>1400</v>
       </c>
       <c r="Q22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R22" s="3">
         <v>900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1300</v>
-      </c>
-      <c r="X22" s="3">
-        <v>400</v>
       </c>
       <c r="Y22" s="3">
         <v>400</v>
       </c>
       <c r="Z22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA22" s="3">
         <v>300</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>200</v>
       </c>
       <c r="AB22" s="3">
         <v>200</v>
@@ -1906,96 +1946,102 @@
         <v>200</v>
       </c>
       <c r="AD22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-4700</v>
       </c>
       <c r="G23" s="3">
         <v>-4700</v>
       </c>
       <c r="H23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-4700</v>
       </c>
       <c r="G26" s="3">
         <v>-4700</v>
       </c>
       <c r="H26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-4700</v>
       </c>
       <c r="G27" s="3">
         <v>-4700</v>
       </c>
       <c r="H27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,20 +2749,23 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2721,40 +2791,40 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>2100</v>
       </c>
       <c r="Q32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-200</v>
       </c>
       <c r="Y32" s="3">
         <v>-200</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-4700</v>
       </c>
       <c r="G33" s="3">
         <v>-4700</v>
       </c>
       <c r="H33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-4700</v>
       </c>
       <c r="G35" s="3">
         <v>-4700</v>
       </c>
       <c r="H35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3190,71 +3277,71 @@
         <v>1800</v>
       </c>
       <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
-      </c>
-      <c r="U41" s="3">
-        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>500</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
@@ -3267,23 +3354,26 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E42" s="3">
         <v>10500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>13100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>9900</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3299,8 +3389,8 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3543,16 +3642,16 @@
         <v>400</v>
       </c>
       <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -3561,7 +3660,7 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3573,23 +3672,23 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
@@ -3611,80 +3710,83 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
-      </c>
-      <c r="U46" s="3">
-        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
       </c>
       <c r="W46" s="3">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3">
         <v>100</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
       <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
         <v>500</v>
       </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
       <c r="AA46" s="3">
         <v>0</v>
       </c>
@@ -3692,13 +3794,16 @@
         <v>0</v>
       </c>
       <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
         <v>100</v>
       </c>
-      <c r="AD46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3798,13 +3906,13 @@
         <v>500</v>
       </c>
       <c r="G48" s="3">
+        <v>500</v>
+      </c>
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -3813,7 +3921,7 @@
         <v>400</v>
       </c>
       <c r="L48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>500</v>
@@ -3822,16 +3930,16 @@
         <v>500</v>
       </c>
       <c r="O48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P48" s="3">
         <v>600</v>
       </c>
       <c r="Q48" s="3">
+        <v>600</v>
+      </c>
+      <c r="R48" s="3">
         <v>700</v>
-      </c>
-      <c r="R48" s="3">
-        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -3840,13 +3948,13 @@
         <v>100</v>
       </c>
       <c r="U48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V48" s="3">
         <v>200</v>
       </c>
       <c r="W48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X48" s="3">
         <v>300</v>
@@ -3855,22 +3963,25 @@
         <v>300</v>
       </c>
       <c r="Z48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA48" s="3">
         <v>400</v>
       </c>
       <c r="AB48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AC48" s="3">
         <v>500</v>
       </c>
       <c r="AD48" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3881,10 +3992,10 @@
         <v>800</v>
       </c>
       <c r="F49" s="3">
+        <v>800</v>
+      </c>
+      <c r="G49" s="3">
         <v>500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>600</v>
       </c>
       <c r="H49" s="3">
         <v>600</v>
@@ -3902,7 +4013,7 @@
         <v>600</v>
       </c>
       <c r="M49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N49" s="3">
         <v>700</v>
@@ -3917,7 +4028,7 @@
         <v>700</v>
       </c>
       <c r="R49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="S49" s="3">
         <v>800</v>
@@ -3932,7 +4043,7 @@
         <v>800</v>
       </c>
       <c r="W49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="X49" s="3">
         <v>900</v>
@@ -3950,13 +4061,16 @@
         <v>900</v>
       </c>
       <c r="AC49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AD49" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4175,14 +4295,14 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>200</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
@@ -4199,11 +4319,11 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
         <v>100</v>
       </c>
-      <c r="AA52" s="3">
-        <v>0</v>
-      </c>
       <c r="AB52" s="3">
         <v>0</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E54" s="3">
         <v>14100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1500</v>
       </c>
       <c r="R54" s="3">
         <v>1500</v>
       </c>
       <c r="S54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T54" s="3">
         <v>2400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1300</v>
-      </c>
-      <c r="W54" s="3">
-        <v>1200</v>
       </c>
       <c r="X54" s="3">
         <v>1200</v>
       </c>
       <c r="Y54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z54" s="3">
         <v>1800</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>1400</v>
       </c>
       <c r="AA54" s="3">
         <v>1400</v>
       </c>
       <c r="AB54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC54" s="3">
         <v>1500</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>1600</v>
       </c>
       <c r="AD54" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,28 +4579,29 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -4479,69 +4610,72 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>2000</v>
       </c>
       <c r="R57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2500</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>2300</v>
       </c>
       <c r="AC57" s="3">
         <v>2300</v>
       </c>
       <c r="AD57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AE57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -4556,11 +4690,11 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -4571,230 +4705,239 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2400</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>1900</v>
       </c>
       <c r="AC58" s="3">
         <v>1900</v>
       </c>
       <c r="AD58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AE58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3600</v>
-      </c>
-      <c r="U59" s="3">
-        <v>3700</v>
       </c>
       <c r="V59" s="3">
         <v>3700</v>
       </c>
       <c r="W59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="X59" s="3">
         <v>3900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1300</v>
       </c>
       <c r="L60" s="3">
         <v>1300</v>
       </c>
       <c r="M60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>13700</v>
       </c>
       <c r="R60" s="3">
         <v>13700</v>
       </c>
       <c r="S60" s="3">
+        <v>13700</v>
+      </c>
+      <c r="T60" s="3">
         <v>11100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>5800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4814,23 +4957,23 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4841,31 +4984,31 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>200</v>
       </c>
       <c r="T61" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="U61" s="3">
         <v>500</v>
       </c>
       <c r="V61" s="3">
+        <v>500</v>
+      </c>
+      <c r="W61" s="3">
         <v>1200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>200</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>100</v>
       </c>
       <c r="AA61" s="3">
         <v>100</v>
@@ -4874,13 +5017,16 @@
         <v>100</v>
       </c>
       <c r="AC61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD61" s="3">
         <v>300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4888,7 +5034,7 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
@@ -4897,7 +5043,7 @@
         <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
@@ -4906,7 +5052,7 @@
         <v>300</v>
       </c>
       <c r="K62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>400</v>
@@ -4915,19 +5061,19 @@
         <v>400</v>
       </c>
       <c r="N62" s="3">
+        <v>400</v>
+      </c>
+      <c r="O62" s="3">
         <v>15100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15200</v>
-      </c>
-      <c r="P62" s="3">
-        <v>500</v>
       </c>
       <c r="Q62" s="3">
         <v>500</v>
       </c>
       <c r="R62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4936,13 +5082,13 @@
         <v>0</v>
       </c>
       <c r="U62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V62" s="3">
         <v>100</v>
       </c>
       <c r="W62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4960,13 +5106,16 @@
         <v>0</v>
       </c>
       <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
         <v>400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E66" s="3">
         <v>600</v>
       </c>
       <c r="F66" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G66" s="3">
         <v>900</v>
       </c>
       <c r="H66" s="3">
+        <v>900</v>
+      </c>
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>8100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>6200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>6600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-161300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-158300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-152600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-148300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-143600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-139000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-134100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-113700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-109600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-105500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-89800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-84100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-83200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-86100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-78600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-77000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-72000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-67800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-63900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-60400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-57400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-53900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-51400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-49500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-47500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-44700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-42000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E76" s="3">
         <v>13500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-15100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-14400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-12800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-12400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-8900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-7700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-8600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-8900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-9900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-6800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-6700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-5700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-4700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-5000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-4700</v>
       </c>
       <c r="G81" s="3">
         <v>-4700</v>
       </c>
       <c r="H81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6449,13 +6648,13 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,34 +7264,35 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -7079,8 +7300,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -7094,20 +7315,20 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
@@ -7124,14 +7345,17 @@
       <c r="AB91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,28 +7529,31 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>700</v>
+      </c>
+      <c r="E94" s="3">
         <v>2500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9900</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>-100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -7337,8 +7567,8 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -7352,26 +7582,26 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,13 +8007,16 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7785,73 +8031,76 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>21100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,80 +8185,83 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>500</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
         <v>0</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>BRTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,143 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -805,11 +809,11 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -959,14 +966,17 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1048,14 +1058,17 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,31 +1100,32 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
-      </c>
-      <c r="J12" s="3">
-        <v>200</v>
       </c>
       <c r="K12" s="3">
         <v>200</v>
@@ -1126,16 +1140,16 @@
         <v>200</v>
       </c>
       <c r="O12" s="3">
+        <v>200</v>
+      </c>
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
-      </c>
-      <c r="R12" s="3">
-        <v>400</v>
       </c>
       <c r="S12" s="3">
         <v>400</v>
@@ -1144,10 +1158,10 @@
         <v>400</v>
       </c>
       <c r="U12" s="3">
+        <v>400</v>
+      </c>
+      <c r="V12" s="3">
         <v>500</v>
-      </c>
-      <c r="V12" s="3">
-        <v>400</v>
       </c>
       <c r="W12" s="3">
         <v>400</v>
@@ -1159,25 +1173,28 @@
         <v>400</v>
       </c>
       <c r="Z12" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA12" s="3">
         <v>200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>600</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>800</v>
       </c>
       <c r="AD12" s="3">
         <v>800</v>
       </c>
       <c r="AE12" s="3">
+        <v>800</v>
+      </c>
+      <c r="AF12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,14 +1306,14 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>16200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1301,38 +1321,38 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>4700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>300</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
@@ -1346,16 +1366,19 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>100</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1800</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>2600</v>
       </c>
       <c r="AC17" s="3">
         <v>2600</v>
       </c>
       <c r="AD17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="AE17" s="3">
         <v>1900</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-4600</v>
       </c>
       <c r="H18" s="3">
         <v>-4600</v>
       </c>
       <c r="I18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-4800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1800</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>-2600</v>
       </c>
       <c r="AC18" s="3">
         <v>-2600</v>
       </c>
       <c r="AD18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-1900</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,23 +1717,24 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>100</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1726,40 +1760,40 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-2100</v>
       </c>
       <c r="R20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>200</v>
       </c>
       <c r="Z20" s="3">
         <v>200</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
@@ -1773,61 +1807,64 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-4600</v>
       </c>
       <c r="H21" s="3">
         <v>-4600</v>
       </c>
       <c r="I21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J21" s="3">
         <v>-4800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-20200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-15000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-2800</v>
       </c>
       <c r="U21" s="3">
         <v>-2800</v>
@@ -1836,39 +1873,42 @@
         <v>-2800</v>
       </c>
       <c r="W21" s="3">
-        <v>-2100</v>
+        <v>-2800</v>
       </c>
       <c r="X21" s="3">
         <v>-2100</v>
       </c>
       <c r="Y21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>-2500</v>
       </c>
       <c r="AC21" s="3">
         <v>-2500</v>
       </c>
       <c r="AD21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-1800</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>100</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
@@ -1876,8 +1916,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1886,61 +1926,61 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>500</v>
       </c>
       <c r="L22" s="3">
         <v>500</v>
       </c>
       <c r="M22" s="3">
+        <v>500</v>
+      </c>
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>1400</v>
       </c>
       <c r="R22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S22" s="3">
         <v>900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>400</v>
       </c>
       <c r="Z22" s="3">
         <v>400</v>
       </c>
       <c r="AA22" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB22" s="3">
         <v>300</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>200</v>
       </c>
       <c r="AC22" s="3">
         <v>200</v>
@@ -1949,99 +1989,105 @@
         <v>200</v>
       </c>
       <c r="AE22" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF22" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-4700</v>
       </c>
       <c r="H23" s="3">
         <v>-4700</v>
       </c>
       <c r="I23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-2800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4300</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-4700</v>
       </c>
       <c r="H26" s="3">
         <v>-4700</v>
       </c>
       <c r="I26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-2800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4300</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-4700</v>
       </c>
       <c r="H27" s="3">
         <v>-4700</v>
       </c>
       <c r="I27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-2800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,23 +2819,26 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-100</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2794,40 +2864,40 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>2100</v>
       </c>
       <c r="R32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-200</v>
       </c>
       <c r="Z32" s="3">
         <v>-200</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
@@ -2841,97 +2911,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4300</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-4700</v>
       </c>
       <c r="H33" s="3">
         <v>-4700</v>
       </c>
       <c r="I33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-2800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4300</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-4700</v>
       </c>
       <c r="H35" s="3">
         <v>-4700</v>
       </c>
       <c r="I35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-2800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,83 +3354,84 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="E41" s="3">
         <v>1800</v>
       </c>
       <c r="F41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>17900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
-      </c>
-      <c r="V41" s="3">
-        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
       <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
         <v>500</v>
       </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3366,17 +3456,17 @@
         <v>9800</v>
       </c>
       <c r="E42" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F42" s="3">
         <v>10500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>13100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>9900</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3392,8 +3482,8 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,13 +3720,16 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
@@ -3645,16 +3744,16 @@
         <v>400</v>
       </c>
       <c r="I45" s="3">
+        <v>400</v>
+      </c>
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -3663,7 +3762,7 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3675,23 +3774,23 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
@@ -3713,83 +3812,86 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E46" s="3">
         <v>12000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
-      </c>
-      <c r="V46" s="3">
-        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>200</v>
       </c>
       <c r="X46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y46" s="3">
         <v>100</v>
       </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
       <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
         <v>500</v>
       </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
       <c r="AB46" s="3">
         <v>0</v>
       </c>
@@ -3797,13 +3899,16 @@
         <v>0</v>
       </c>
       <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
         <v>100</v>
       </c>
-      <c r="AE46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3909,13 +4017,13 @@
         <v>500</v>
       </c>
       <c r="H48" s="3">
+        <v>500</v>
+      </c>
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
@@ -3924,7 +4032,7 @@
         <v>400</v>
       </c>
       <c r="M48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>500</v>
@@ -3933,16 +4041,16 @@
         <v>500</v>
       </c>
       <c r="P48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q48" s="3">
         <v>600</v>
       </c>
       <c r="R48" s="3">
+        <v>600</v>
+      </c>
+      <c r="S48" s="3">
         <v>700</v>
-      </c>
-      <c r="S48" s="3">
-        <v>100</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -3951,13 +4059,13 @@
         <v>100</v>
       </c>
       <c r="V48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W48" s="3">
         <v>200</v>
       </c>
       <c r="X48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y48" s="3">
         <v>300</v>
@@ -3966,27 +4074,30 @@
         <v>300</v>
       </c>
       <c r="AA48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AB48" s="3">
         <v>400</v>
       </c>
       <c r="AC48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AD48" s="3">
         <v>500</v>
       </c>
       <c r="AE48" s="3">
+        <v>500</v>
+      </c>
+      <c r="AF48" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
         <v>800</v>
@@ -3995,10 +4106,10 @@
         <v>800</v>
       </c>
       <c r="G49" s="3">
+        <v>800</v>
+      </c>
+      <c r="H49" s="3">
         <v>500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>600</v>
       </c>
       <c r="I49" s="3">
         <v>600</v>
@@ -4016,7 +4127,7 @@
         <v>600</v>
       </c>
       <c r="N49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O49" s="3">
         <v>700</v>
@@ -4031,7 +4142,7 @@
         <v>700</v>
       </c>
       <c r="S49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T49" s="3">
         <v>800</v>
@@ -4046,7 +4157,7 @@
         <v>800</v>
       </c>
       <c r="X49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="Y49" s="3">
         <v>900</v>
@@ -4064,13 +4175,16 @@
         <v>900</v>
       </c>
       <c r="AD49" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE49" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4298,14 +4418,14 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>200</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
@@ -4322,11 +4442,11 @@
         <v>0</v>
       </c>
       <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
         <v>100</v>
       </c>
-      <c r="AB52" s="3">
-        <v>0</v>
-      </c>
       <c r="AC52" s="3">
         <v>0</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E54" s="3">
         <v>13300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1400</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1500</v>
       </c>
       <c r="S54" s="3">
         <v>1500</v>
       </c>
       <c r="T54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U54" s="3">
         <v>2400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1300</v>
-      </c>
-      <c r="X54" s="3">
-        <v>1200</v>
       </c>
       <c r="Y54" s="3">
         <v>1200</v>
       </c>
       <c r="Z54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA54" s="3">
         <v>1800</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>1400</v>
       </c>
       <c r="AB54" s="3">
         <v>1400</v>
       </c>
       <c r="AC54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD54" s="3">
         <v>1500</v>
-      </c>
-      <c r="AD54" s="3">
-        <v>1600</v>
       </c>
       <c r="AE54" s="3">
         <v>1600</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,31 +4710,32 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -4613,72 +4744,75 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>2000</v>
       </c>
       <c r="S57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>2500</v>
-      </c>
-      <c r="AC57" s="3">
-        <v>2300</v>
       </c>
       <c r="AD57" s="3">
         <v>2300</v>
       </c>
       <c r="AE57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AF57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4693,11 +4827,11 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -4708,236 +4842,245 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>1100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2400</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>1900</v>
       </c>
       <c r="AD58" s="3">
         <v>1900</v>
       </c>
       <c r="AE58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AF58" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
       </c>
       <c r="K59" s="3">
+        <v>300</v>
+      </c>
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3600</v>
-      </c>
-      <c r="V59" s="3">
-        <v>3700</v>
       </c>
       <c r="W59" s="3">
         <v>3700</v>
       </c>
       <c r="X59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Y59" s="3">
         <v>3900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>900</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1300</v>
       </c>
       <c r="M60" s="3">
         <v>1300</v>
       </c>
       <c r="N60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18400</v>
-      </c>
-      <c r="R60" s="3">
-        <v>13700</v>
       </c>
       <c r="S60" s="3">
         <v>13700</v>
       </c>
       <c r="T60" s="3">
+        <v>13700</v>
+      </c>
+      <c r="U60" s="3">
         <v>11100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>8000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>7000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>5800</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4960,23 +5103,23 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4300</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4987,31 +5130,31 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>200</v>
       </c>
       <c r="U61" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="V61" s="3">
         <v>500</v>
       </c>
       <c r="W61" s="3">
+        <v>500</v>
+      </c>
+      <c r="X61" s="3">
         <v>1200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>200</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>100</v>
       </c>
       <c r="AB61" s="3">
         <v>100</v>
@@ -5020,24 +5163,27 @@
         <v>100</v>
       </c>
       <c r="AD61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE61" s="3">
         <v>300</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -5046,7 +5192,7 @@
         <v>200</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
@@ -5055,7 +5201,7 @@
         <v>300</v>
       </c>
       <c r="L62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>400</v>
@@ -5064,19 +5210,19 @@
         <v>400</v>
       </c>
       <c r="O62" s="3">
+        <v>400</v>
+      </c>
+      <c r="P62" s="3">
         <v>15100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15200</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>500</v>
       </c>
       <c r="R62" s="3">
         <v>500</v>
       </c>
       <c r="S62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -5085,13 +5231,13 @@
         <v>0</v>
       </c>
       <c r="V62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W62" s="3">
         <v>100</v>
       </c>
       <c r="X62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -5109,13 +5255,16 @@
         <v>0</v>
       </c>
       <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
         <v>400</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="3">
         <v>900</v>
-      </c>
-      <c r="E66" s="3">
-        <v>600</v>
       </c>
       <c r="F66" s="3">
         <v>600</v>
       </c>
       <c r="G66" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H66" s="3">
         <v>900</v>
       </c>
       <c r="I66" s="3">
+        <v>900</v>
+      </c>
+      <c r="J66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>8900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>8600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>8100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>6200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>6600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-164200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-161300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-158300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-152600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-148300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-143600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-139000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-134100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-113700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-109600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-105500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-89800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-84100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-83200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-86100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-78600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-77000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-72000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-67800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-63900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-60400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-57400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-53900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-51400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-49500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-47500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-44700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-42000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-39900</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E76" s="3">
         <v>12400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-15100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-17500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-12800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-12400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-8900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-7700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-8600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-8900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-9900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-7700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-6800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-6700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-5700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-4700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-5000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-4500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4300</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-4700</v>
       </c>
       <c r="H81" s="3">
         <v>-4700</v>
       </c>
       <c r="I81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-2800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6651,13 +6850,13 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7274,28 +7495,28 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -7303,8 +7524,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -7318,20 +7539,20 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
@@ -7348,14 +7569,17 @@
       <c r="AC91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD91" s="3">
-        <v>0</v>
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,31 +7759,34 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9900</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>-100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -7570,8 +7800,8 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -7585,26 +7815,26 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,17 +8253,20 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -8034,73 +8280,76 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>21100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>1100</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,83 +8437,86 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>500</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
         <v>0</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>-500</v>
       </c>
     </row>
